--- a/page_element_infos/page_element_infos.xlsx
+++ b/page_element_infos/page_element_infos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\selenium\ZenTaoTestPro\page_element_infos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375857D9-A71D-4585-B88C-B4DE53309198}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CD9E08-6415-4950-8EA8-802431A38F03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="13114" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17" yWindow="17" windowWidth="21926" windowHeight="13097" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login_page" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="58">
   <si>
     <t>元素变量名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -239,6 +239,23 @@
   <si>
     <t>//*[@id="mainMenu"]/div[3]/a[3]/i</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_page</t>
+  </si>
+  <si>
+    <t>login_page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_page</t>
+  </si>
+  <si>
+    <t>story_page</t>
   </si>
 </sst>
 </file>
@@ -582,22 +599,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.0703125" customWidth="1"/>
-    <col min="2" max="2" width="14.35546875" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.0703125" customWidth="1"/>
+    <col min="2" max="3" width="14.35546875" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.0703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -605,16 +622,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -622,16 +642,19 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -639,16 +662,19 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -656,224 +682,257 @@
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -884,22 +943,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{032637D6-6F29-42C3-83F3-FC5B032FA7B8}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.0703125" customWidth="1"/>
     <col min="2" max="2" width="14.35546875" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.0703125" customWidth="1"/>
+    <col min="3" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.0703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -910,13 +969,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -926,236 +988,269 @@
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1166,22 +1261,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA25326-12D9-418C-81AC-FC43C58707A7}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.0703125" customWidth="1"/>
-    <col min="2" max="2" width="14.35546875" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.0703125" customWidth="1"/>
+    <col min="2" max="3" width="14.35546875" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.0703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1189,16 +1284,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -1206,16 +1304,19 @@
         <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1223,16 +1324,19 @@
         <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -1240,16 +1344,19 @@
         <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -1257,16 +1364,19 @@
         <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
@@ -1274,23 +1384,27 @@
         <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
@@ -1298,16 +1412,19 @@
         <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>35</v>
       </c>
@@ -1315,16 +1432,19 @@
         <v>37</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
@@ -1332,16 +1452,19 @@
         <v>38</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>41</v>
       </c>
@@ -1349,22 +1472,26 @@
         <v>42</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>43</v>
       </c>
@@ -1372,16 +1499,19 @@
         <v>44</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>46</v>
       </c>
@@ -1389,16 +1519,19 @@
         <v>49</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>47</v>
       </c>
@@ -1406,16 +1539,19 @@
         <v>50</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F15" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>48</v>
       </c>
@@ -1423,140 +1559,161 @@
         <v>51</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F16" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/page_element_infos/page_element_infos.xlsx
+++ b/page_element_infos/page_element_infos.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\selenium\ZenTaoTestPro\page_element_infos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CD9E08-6415-4950-8EA8-802431A38F03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA1FE71-707B-4B5E-95D5-D42B3FADBBFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17" yWindow="17" windowWidth="21926" windowHeight="13097" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="login_page" sheetId="1" r:id="rId1"/>
-    <sheet name="main_page" sheetId="5" r:id="rId2"/>
-    <sheet name="product_page" sheetId="6" r:id="rId3"/>
+    <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="main" sheetId="5" r:id="rId2"/>
+    <sheet name="product" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="57">
   <si>
     <t>元素变量名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,14 +149,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>前往产品页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>go_product_page</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>add_product_page</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -256,6 +248,10 @@
   </si>
   <si>
     <t>story_page</t>
+  </si>
+  <si>
+    <t>main_page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -602,7 +598,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -622,7 +618,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -642,7 +638,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
@@ -662,7 +658,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -670,9 +666,7 @@
       <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2">
-        <v>10</v>
-      </c>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -682,7 +676,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -946,7 +940,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -966,10 +960,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -986,9 +980,11 @@
         <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
@@ -1261,10 +1257,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA25326-12D9-418C-81AC-FC43C58707A7}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1284,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -1298,19 +1294,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2">
         <v>3</v>
@@ -1318,10 +1314,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
@@ -1330,7 +1326,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2">
         <v>3</v>
@@ -1338,10 +1334,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
@@ -1350,7 +1346,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2">
         <v>3</v>
@@ -1358,10 +1354,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
@@ -1370,55 +1366,55 @@
         <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F5" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F8" s="2">
         <v>3</v>
@@ -1426,19 +1422,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" s="2">
         <v>3</v>
@@ -1446,66 +1442,66 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F10" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="C12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="2">
+      <c r="E12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F13" s="2">
         <v>3</v>
@@ -1513,19 +1509,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="F14" s="2">
         <v>3</v>
@@ -1533,43 +1529,31 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F15" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="2">
-        <v>3</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
@@ -1620,12 +1604,12 @@
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
@@ -1707,14 +1691,6 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/page_element_infos/page_element_infos.xlsx
+++ b/page_element_infos/page_element_infos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\selenium\ZenTaoTestPro\page_element_infos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA1FE71-707B-4B5E-95D5-D42B3FADBBFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11BC3066-57FB-4044-9407-FFEC85D6F73C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17" yWindow="17" windowWidth="21926" windowHeight="13097" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="64">
   <si>
     <t>元素变量名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -251,6 +251,34 @@
   </si>
   <si>
     <t>main_page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录用户名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_quit_button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户退出按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userNav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//a[@href="/zentao/user-logout.html"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -939,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{032637D6-6F29-42C3-83F3-FC5B032FA7B8}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -948,7 +976,7 @@
     <col min="1" max="1" width="17.0703125" customWidth="1"/>
     <col min="2" max="2" width="14.35546875" customWidth="1"/>
     <col min="3" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="37.640625" customWidth="1"/>
     <col min="6" max="6" width="17.0703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -993,20 +1021,44 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
@@ -1259,7 +1311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA25326-12D9-418C-81AC-FC43C58707A7}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>

--- a/page_element_infos/page_element_infos.xlsx
+++ b/page_element_infos/page_element_infos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\selenium\ZenTaoTestPro\page_element_infos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11BC3066-57FB-4044-9407-FFEC85D6F73C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCC454E-7304-470C-9134-9A9B37FF21B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17" yWindow="17" windowWidth="21926" windowHeight="13097" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17" yWindow="17" windowWidth="21926" windowHeight="13097" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -625,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -967,7 +967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{032637D6-6F29-42C3-83F3-FC5B032FA7B8}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>

--- a/page_element_infos/page_element_infos.xlsx
+++ b/page_element_infos/page_element_infos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\selenium\ZenTaoTestPro\page_element_infos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCC454E-7304-470C-9134-9A9B37FF21B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99A170E-0511-4D48-87D1-79279B076A8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17" yWindow="17" windowWidth="21926" windowHeight="13097" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
   <si>
     <t>元素变量名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -201,10 +201,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//*[@id='subNavbar']/ul/li[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>add_story_page</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -279,6 +275,95 @@
   </si>
   <si>
     <t>//a[@href="/zentao/user-logout.html"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="subNavbar"]/ul/li[4]/a</t>
+  </si>
+  <si>
+    <t>release_page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="subNavbar"]/ul/li[5]/a</t>
+  </si>
+  <si>
+    <t>roadmap_page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路线图页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="subNavbar"]/ul/li[7]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dynamic_page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="subNavbar"]/ul/li[8]</t>
+  </si>
+  <si>
+    <t>//*[@id="subNavbar"]/ul/li[10]/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doc_page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="subNavbar"]/ul/li[11]/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>module_page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="subNavbar"]/ul/li[12]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>概况页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品导航</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="subNavbar"]/ul/li[1]/a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -302,15 +387,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -333,14 +424,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -625,7 +762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -646,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -666,7 +803,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
@@ -686,7 +823,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -704,7 +841,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -968,7 +1105,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -988,7 +1125,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -1008,7 +1145,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
@@ -1022,19 +1159,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="F3" s="2">
         <v>10</v>
@@ -1042,19 +1179,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F4" s="2">
         <v>10</v>
@@ -1309,10 +1446,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA25326-12D9-418C-81AC-FC43C58707A7}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1320,7 +1457,7 @@
     <col min="1" max="1" width="17.0703125" customWidth="1"/>
     <col min="2" max="3" width="14.35546875" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="29.35546875" customWidth="1"/>
     <col min="6" max="6" width="17.0703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1332,7 +1469,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -1345,60 +1482,50 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="F2" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="F4" s="2">
         <v>3</v>
@@ -1406,38 +1533,50 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="F5" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
@@ -1446,7 +1585,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="F7" s="2">
         <v>3</v>
@@ -1454,19 +1593,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="F8" s="2">
         <v>3</v>
@@ -1474,19 +1613,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="F9" s="2">
         <v>3</v>
@@ -1494,66 +1633,67 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="F10" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="2">
-        <v>3</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="F13" s="2">
         <v>3</v>
@@ -1561,13 +1701,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>6</v>
@@ -1581,13 +1721,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>6</v>
@@ -1608,39 +1748,86 @@
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="A17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1656,84 +1843,120 @@
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="A23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="A24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="A25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
@@ -1743,7 +1966,90 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:F2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/page_element_infos/page_element_infos.xlsx
+++ b/page_element_infos/page_element_infos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\selenium\ZenTaoTestPro\page_element_infos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99A170E-0511-4D48-87D1-79279B076A8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459D9873-6DD2-414D-AA00-1119E5625FEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -762,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1448,7 +1448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA25326-12D9-418C-81AC-FC43C58707A7}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
